--- a/docs/05-Power-Budget/Power_Budget_Mo.xlsx
+++ b/docs/05-Power-Budget/Power_Budget_Mo.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29423"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29429"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBDC687B-C549-45E6-94FD-88462D4420B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2D6AA86-52EF-4D8A-A24A-A02049772FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>Unit</t>
   </si>
   <si>
-    <t>DC Motor (6V N20 Gearmotor)</t>
-  </si>
-  <si>
-    <t>(datasheet PN)</t>
+    <t>DC Motor (FIT0492-A)</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>+6V to +12V</t>
@@ -120,10 +120,10 @@
     <t>+7V to +35V</t>
   </si>
   <si>
-    <t>Discrete H-Bridge (Q1–Q4)</t>
-  </si>
-  <si>
-    <t>PMOS+NMOS</t>
+    <t xml:space="preserve">Discrete H-Bridge </t>
+  </si>
+  <si>
+    <t>FAN8100N</t>
   </si>
   <si>
     <t>+9V &amp; +5V</t>
@@ -148,7 +148,7 @@
     <t>DC Motor (stall)</t>
   </si>
   <si>
-    <t>(N20 motor)</t>
+    <t>(M1)</t>
   </si>
   <si>
     <t>+9V</t>
@@ -476,6 +476,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -484,9 +487,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -801,10 +801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,7 +823,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
@@ -856,7 +859,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="12"/>
@@ -1032,7 +1035,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="12"/>
@@ -1723,7 +1726,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>76</v>
       </c>
       <c r="B61" s="12"/>
@@ -1735,7 +1738,7 @@
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="9" t="s">
         <v>77</v>
       </c>
       <c r="B62" s="12"/>
@@ -1894,7 +1897,7 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>90</v>
       </c>
       <c r="B72" s="15"/>
@@ -1906,7 +1909,7 @@
       <c r="H72" s="15"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="11" t="s">
         <v>91</v>
       </c>
       <c r="B73" s="15"/>
@@ -1928,5 +1931,6 @@
     <mergeCell ref="A61:H61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="portrait"/>
 </worksheet>
 </file>